--- a/htdocs/App/Controllers/HojaSalida.xlsx
+++ b/htdocs/App/Controllers/HojaSalida.xlsx
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +114,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -184,6 +190,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +547,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,13 +572,13 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>

--- a/htdocs/App/Controllers/HojaSalida.xlsx
+++ b/htdocs/App/Controllers/HojaSalida.xlsx
@@ -32,9 +32,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Palma de Mallorca a ___ de  __________ de 2017</t>
-  </si>
-  <si>
     <t>Firma</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t xml:space="preserve">he  recibido de la Gestoría </t>
+  </si>
+  <si>
+    <t>Palma de Mallorca a ___ de  __________ de 2018</t>
   </si>
 </sst>
 </file>
@@ -181,6 +181,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -190,7 +191,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,7 +547,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +578,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="14"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
@@ -762,7 +762,7 @@
     </row>
     <row r="20" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -771,19 +771,19 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -792,7 +792,7 @@
     </row>
     <row r="22" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
@@ -806,15 +806,15 @@
     </row>
     <row r="23" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
@@ -844,7 +844,7 @@
     </row>
     <row r="26" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -897,7 +897,7 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -995,14 +995,14 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
